--- a/data/trans_dic/P56$familiarvive-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, le ayudaun familiar conviviente cuando tiene dificultades en la actividades básicas</t>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades básicas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,42</t>
+          <t>0,0; 59,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 73,03</t>
+          <t>17,7; 74,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +770,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,55</t>
+          <t>0,0; 68,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,96</t>
+          <t>0,0; 49,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 53,3</t>
+          <t>10,3; 49,19</t>
         </is>
       </c>
     </row>
@@ -869,17 +870,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,78</t>
+          <t>0,0; 67,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,84</t>
+          <t>0,0; 81,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,47</t>
+          <t>0,0; 38,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 46,42</t>
+          <t>4,64; 49,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,62</t>
+          <t>0,0; 59,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,41</t>
+          <t>0,0; 61,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 33,49</t>
+          <t>3,82; 32,61</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1010,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,36</t>
+          <t>0,0; 58,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,08</t>
+          <t>6,95; 47,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 40,68</t>
+          <t>4,94; 41,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,97</t>
+          <t>0,0; 58,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 84,31</t>
+          <t>0,0; 83,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 23,49</t>
+          <t>2,43; 22,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,56</t>
+          <t>0,0; 59,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 41,33</t>
+          <t>5,7; 41,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 58,0</t>
+          <t>13,19; 58,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 25,19</t>
+          <t>6,63; 25,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 44,06</t>
+          <t>12,82; 43,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 48,85</t>
+          <t>15,47; 48,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 33,25</t>
+          <t>6,49; 33,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 23,31</t>
+          <t>7,04; 22,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,71</t>
+          <t>0,0; 74,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 46,3</t>
+          <t>5,9; 46,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 49,61</t>
+          <t>6,02; 49,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 36,3</t>
+          <t>15,04; 38,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 43,21</t>
+          <t>13,62; 42,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 41,57</t>
+          <t>17,17; 41,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 36,05</t>
+          <t>9,89; 34,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,81; 25,15</t>
+          <t>10,85; 24,96</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,17</t>
+          <t>0,0; 44,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,52 +1295,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 31,46</t>
+          <t>3,54; 29,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 25,97</t>
+          <t>2,8; 24,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,98; 63,75</t>
+          <t>14,25; 63,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 41,93</t>
+          <t>19,08; 42,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,95; 47,61</t>
+          <t>16,68; 48,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,39; 25,09</t>
+          <t>13,53; 25,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,48; 47,72</t>
+          <t>13,91; 49,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,46; 34,04</t>
+          <t>14,36; 33,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,91; 35,79</t>
+          <t>13,85; 36,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,57; 22,87</t>
+          <t>12,33; 22,8</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,39; 60,17</t>
+          <t>32,75; 59,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,67; 39,47</t>
+          <t>19,81; 38,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 35,16</t>
+          <t>15,78; 35,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,42; 32,21</t>
+          <t>18,99; 31,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>33,39; 60,17</t>
+          <t>32,75; 59,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,67; 39,47</t>
+          <t>19,81; 38,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 35,16</t>
+          <t>15,78; 35,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 30,95</t>
+          <t>18,67; 31,29</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,48; 31,14</t>
+          <t>9,93; 31,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,89; 31,0</t>
+          <t>12,0; 32,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,32; 25,96</t>
+          <t>10,08; 27,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,68; 19,67</t>
+          <t>8,5; 20,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,27; 51,76</t>
+          <t>30,8; 51,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,79; 34,53</t>
+          <t>21,81; 34,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,79; 34,49</t>
+          <t>19,06; 34,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 26,04</t>
+          <t>18,1; 25,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,23; 41,11</t>
+          <t>25,87; 41,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,98; 31,98</t>
+          <t>20,55; 31,8</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,46; 29,57</t>
+          <t>17,91; 29,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,0</t>
+          <t>16,25; 22,97</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2207</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3250</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1007</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4222</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3386</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 983</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3261</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3801</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1033; 4344</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1351</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5090</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5573</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1191; 5685</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2270</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2437</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 632</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4394</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3969</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3402</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1442</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3322</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>376; 3977</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1474</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5875</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5767</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>644; 5499</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3556</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5882</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1393</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4177</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>724; 4995</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>677; 5627</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4473</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6153</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6078</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>438; 4004</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6214</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1004; 7340</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2335; 10404</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2105; 8064</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7576</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12713</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6640</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5404</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9853</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16866</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9496</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13771</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3776; 12916</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6578; 20586</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1601; 8301</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3559; 11505</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5470</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1075; 8391</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1316; 10867</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4238; 10792</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5012; 15664</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10425; 25328</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4603; 15935</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8538; 19650</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6088</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19481</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10964</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15384</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7853</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19482</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14493</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17373</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4537</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1911</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>909; 7687</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>509; 4520</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2460; 10905</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12470; 27545</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5965; 17272</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11212; 21051</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3826; 13503</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11989; 27954</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8509; 22610</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12453; 23025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27714</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29807</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23710</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26188</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>27714</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>29807</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>23710</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26188</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19629; 35641</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20527; 39808</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15195; 34199</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19604; 32765</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19629; 35641</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>20527; 39808</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15195; 34199</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19672; 32966</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>15965</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>11967</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13269</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>38389</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>57651</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>44845</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>54228</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>47729</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>73616</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>56812</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>67497</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4792; 15366</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9419; 25791</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7267; 19490</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>8415; 19972</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28816; 48252</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>44562; 71216</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>32506; 58447</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>44565; 62963</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36686; 59390</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>58121; 89927</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>43469; 72335</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>56090; 79312</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P56$familiarvive-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
